--- a/output/payment_info.xlsx
+++ b/output/payment_info.xlsx
@@ -17,13 +17,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,74 +427,90 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>PayGo ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Payment Group</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total times Paid</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Date 1</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Date 2</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Date 3</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Date 4</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Date 5</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Date 6</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date 7</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date 8</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date 9</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Date 10</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date 11</t>
         </is>
